--- a/Angular B10 G2.xlsx
+++ b/Angular B10 G2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gajanan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1995D87B-97A3-6B48-AE69-DB816F7E0D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47FFC11-C7F4-4F5A-9370-0B2864013EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
+    <author>a</author>
   </authors>
   <commentList>
     <comment ref="C5" authorId="0" shapeId="0" xr:uid="{A002D951-4DFC-6C40-B330-CFAA6090F24C}">
@@ -97,12 +98,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{3D0D925A-5B86-4E71-A2C6-F7FDCC9B5DB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>a:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
     <t>Student Name</t>
   </si>
@@ -116,23 +141,44 @@
     <t>Present</t>
   </si>
   <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Sunanda Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jija Molak (TL)</t>
+  </si>
+  <si>
+    <t>Dipali Mali</t>
+  </si>
+  <si>
+    <t>Tanuja Raut</t>
+  </si>
+  <si>
+    <t>Ashwini Bagal</t>
+  </si>
+  <si>
+    <t>Aishwarya Rane</t>
+  </si>
+  <si>
+    <t>Anshu Dangi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nirzara </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time = 7 PM </t>
+  </si>
+  <si>
     <t>Absent</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>Note: Time 7 to 9PM</t>
-  </si>
-  <si>
-    <t>Amol (TL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,6 +205,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -531,19 +590,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF336CF2-9F7E-9D47-A242-C3CB362C49F8}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -551,13 +610,17 @@
         <v>0</v>
       </c>
       <c r="C1" s="4">
-        <v>45289</v>
+        <v>45292</v>
       </c>
       <c r="D1" s="4">
-        <v>45290</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+        <v>45293</v>
+      </c>
+      <c r="E1" s="4">
+        <v>45294</v>
+      </c>
+      <c r="F1" s="4">
+        <v>45295</v>
+      </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -573,19 +636,25 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -601,19 +670,25 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -629,19 +704,25 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -657,19 +738,25 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -685,19 +772,25 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -713,19 +806,25 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -741,17 +840,25 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -767,12 +874,12 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -793,13 +900,11 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -819,13 +924,11 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
     </row>
-    <row r="11" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -845,14 +948,14 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>6</v>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F2:F9" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>
@@ -869,9 +972,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -884,7 +987,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -892,12 +995,12 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -905,12 +1008,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -921,7 +1024,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -932,7 +1035,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -943,7 +1046,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -954,7 +1057,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -965,7 +1068,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>

--- a/Angular B10 G2.xlsx
+++ b/Angular B10 G2.xlsx
@@ -8,18 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47FFC11-C7F4-4F5A-9370-0B2864013EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C154BAA2-4AAD-46EB-8142-E845084C612B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
     <sheet name="Jan-2024" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -28,11 +37,36 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>a</author>
     <author>Microsoft Office User</author>
-    <author>a</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{A002D951-4DFC-6C40-B330-CFAA6090F24C}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{3A69B463-999C-4B2F-A813-FACDB8B57756}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>a:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Wedding
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{A002D951-4DFC-6C40-B330-CFAA6090F24C}">
       <text>
         <r>
           <rPr>
@@ -65,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{4B76430F-036D-0545-BD86-7FF3E142D70F}">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{4B76430F-036D-0545-BD86-7FF3E142D70F}">
       <text>
         <r>
           <rPr>
@@ -98,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{3D0D925A-5B86-4E71-A2C6-F7FDCC9B5DB4}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{3D0D925A-5B86-4E71-A2C6-F7FDCC9B5DB4}">
       <text>
         <r>
           <rPr>
@@ -127,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
   <si>
     <t>Student Name</t>
   </si>
@@ -592,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF336CF2-9F7E-9D47-A242-C3CB362C49F8}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -621,10 +655,18 @@
       <c r="F1" s="4">
         <v>45295</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="G1" s="4">
+        <v>45296</v>
+      </c>
+      <c r="H1" s="4">
+        <v>45297</v>
+      </c>
+      <c r="I1" s="4">
+        <v>45298</v>
+      </c>
+      <c r="J1" s="4">
+        <v>45299</v>
+      </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -655,10 +697,16 @@
       <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -689,8 +737,12 @@
       <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -723,8 +775,12 @@
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -757,8 +813,12 @@
       <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -791,8 +851,12 @@
       <c r="F6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -825,8 +889,12 @@
       <c r="F7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -859,8 +927,12 @@
       <c r="F8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -881,12 +953,24 @@
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -955,7 +1039,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F2:F9" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F2:N9 O2:O10" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 G2.xlsx
+++ b/Angular B10 G2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C154BAA2-4AAD-46EB-8142-E845084C612B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A2D648-F036-493A-8CF4-A4584091D810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="8565" yWindow="1035" windowWidth="15375" windowHeight="7875" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="15">
   <si>
     <t>Student Name</t>
   </si>
@@ -627,7 +627,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,9 @@
         <v>14</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -782,7 +784,9 @@
         <v>14</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -820,7 +824,9 @@
         <v>14</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -858,7 +864,9 @@
         <v>14</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -896,7 +904,9 @@
         <v>14</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -934,7 +944,9 @@
         <v>14</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -972,7 +984,9 @@
         <v>14</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>

--- a/Angular B10 G2.xlsx
+++ b/Angular B10 G2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A2D648-F036-493A-8CF4-A4584091D810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C64388-062C-43A9-B5E7-A08EA7C3B68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="1035" windowWidth="15375" windowHeight="7875" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="15">
   <si>
     <t>Student Name</t>
   </si>
@@ -627,7 +627,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,9 @@
       <c r="J1" s="4">
         <v>45299</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="4">
+        <v>45300</v>
+      </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -707,7 +709,9 @@
       <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -747,7 +751,9 @@
       <c r="J3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -787,7 +793,9 @@
       <c r="J4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -827,7 +835,9 @@
       <c r="J5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -867,7 +877,9 @@
       <c r="J6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -907,7 +919,9 @@
       <c r="J7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -947,7 +961,9 @@
       <c r="J8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -987,7 +1003,9 @@
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>

--- a/Angular B10 G2.xlsx
+++ b/Angular B10 G2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C64388-062C-43A9-B5E7-A08EA7C3B68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8A5151-0ACE-4E6E-8AA0-C66FFBEB9142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
   <si>
     <t>Student Name</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Absent</t>
+  </si>
+  <si>
+    <t>Sunday</t>
   </si>
 </sst>
 </file>
@@ -626,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF336CF2-9F7E-9D47-A242-C3CB362C49F8}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -670,15 +673,33 @@
       <c r="K1" s="4">
         <v>45300</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="L1" s="4">
+        <v>45301</v>
+      </c>
+      <c r="M1" s="4">
+        <v>45302</v>
+      </c>
+      <c r="N1" s="4">
+        <v>45303</v>
+      </c>
+      <c r="O1" s="4">
+        <v>45304</v>
+      </c>
+      <c r="P1" s="4">
+        <v>45305</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>45306</v>
+      </c>
+      <c r="R1" s="4">
+        <v>45307</v>
+      </c>
+      <c r="S1" s="4">
+        <v>45308</v>
+      </c>
+      <c r="T1" s="4">
+        <v>45309</v>
+      </c>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
@@ -712,11 +733,21 @@
       <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -754,10 +785,18 @@
       <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -796,10 +835,18 @@
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -838,10 +885,18 @@
       <c r="K5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -880,10 +935,18 @@
       <c r="K6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -922,10 +985,18 @@
       <c r="K7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -964,10 +1035,18 @@
       <c r="K8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -1006,10 +1085,18 @@
       <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -1071,7 +1158,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F2:N9 O2:O10" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F2:N9 O2:O10 Q2:T9" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 G2.xlsx
+++ b/Angular B10 G2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8A5151-0ACE-4E6E-8AA0-C66FFBEB9142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF2C0A3-E7DA-4AC3-B26B-CD1C5D47AD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="16">
   <si>
     <t>Student Name</t>
   </si>
@@ -271,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -294,11 +294,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,6 +333,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF336CF2-9F7E-9D47-A242-C3CB362C49F8}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -748,10 +770,18 @@
       <c r="P2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -798,10 +828,18 @@
         <v>3</v>
       </c>
       <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -848,10 +886,18 @@
         <v>14</v>
       </c>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="Q4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -898,10 +944,18 @@
         <v>3</v>
       </c>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="Q5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -948,9 +1002,15 @@
         <v>3</v>
       </c>
       <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -998,9 +1058,15 @@
         <v>3</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="Q7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -1048,10 +1114,18 @@
         <v>3</v>
       </c>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="Q8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -1098,10 +1172,18 @@
         <v>14</v>
       </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="Q9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6">

--- a/Angular B10 G2.xlsx
+++ b/Angular B10 G2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF2C0A3-E7DA-4AC3-B26B-CD1C5D47AD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F0E37D-0D65-4E60-91C7-0EFE9CDBBA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="16">
   <si>
     <t>Student Name</t>
   </si>
@@ -318,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,8 +333,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF336CF2-9F7E-9D47-A242-C3CB362C49F8}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
@@ -661,7 +662,7 @@
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -722,8 +723,14 @@
       <c r="T1" s="4">
         <v>45309</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="U1" s="10">
+        <v>45310</v>
+      </c>
+      <c r="V1" s="10">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -748,7 +755,6 @@
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7"/>
       <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
@@ -782,8 +788,12 @@
       <c r="T2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="U2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -838,10 +848,14 @@
         <v>3</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -898,8 +912,14 @@
       <c r="T4" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="U4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -956,8 +976,12 @@
       <c r="T5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="U5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -982,7 +1006,6 @@
       <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1011,9 +1034,15 @@
       <c r="S6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1067,9 +1096,15 @@
       <c r="S7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1126,8 +1161,12 @@
       <c r="T8" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="U8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1184,8 +1223,12 @@
       <c r="T9" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="U9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1208,8 +1251,9 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1232,15 +1276,16 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="7"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 F2:N9 O2:O10 Q2:T9" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 O2:O10 F2:H2 J2:N2 U10:U11 I7 F3:N5 F8:N9 F6:H7 J6:N7 Q2:V9" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 G2.xlsx
+++ b/Angular B10 G2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F0E37D-0D65-4E60-91C7-0EFE9CDBBA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56959B7C-00F7-43E4-8528-13EB79E43CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -67,6 +67,39 @@
       </text>
     </comment>
     <comment ref="C5" authorId="1" shapeId="0" xr:uid="{A002D951-4DFC-6C40-B330-CFAA6090F24C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Not feeling well- Headache</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V5" authorId="1" shapeId="0" xr:uid="{62F2DE51-3EF4-4E2C-8BFE-E3DFED91F634}">
       <text>
         <r>
           <rPr>
@@ -161,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="16">
   <si>
     <t>Student Name</t>
   </si>
@@ -650,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF336CF2-9F7E-9D47-A242-C3CB362C49F8}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -662,7 +695,7 @@
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -729,8 +762,29 @@
       <c r="V1" s="10">
         <v>45311</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="W1" s="10">
+        <v>45312</v>
+      </c>
+      <c r="X1" s="10">
+        <v>45313</v>
+      </c>
+      <c r="Y1" s="10">
+        <v>45314</v>
+      </c>
+      <c r="Z1" s="10">
+        <v>45315</v>
+      </c>
+      <c r="AA1" s="10">
+        <v>45316</v>
+      </c>
+      <c r="AB1" s="10">
+        <v>45317</v>
+      </c>
+      <c r="AC1" s="10">
+        <v>38013</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -791,9 +845,35 @@
       <c r="U2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -853,9 +933,35 @@
       <c r="U3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="7"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -866,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>3</v>
@@ -916,10 +1022,34 @@
         <v>14</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -927,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>3</v>
@@ -979,9 +1109,35 @@
       <c r="U5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1040,9 +1196,35 @@
       <c r="U6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1102,9 +1284,35 @@
       <c r="U7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1164,9 +1372,35 @@
       <c r="U8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1226,9 +1460,35 @@
       <c r="U9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1253,13 +1513,15 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1278,14 +1540,14 @@
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 O2:O10 F2:H2 J2:N2 U10:U11 I7 F3:N5 F8:N9 F6:H7 J6:N7 Q2:V9" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 O2:O10 F2:H2 J2:N2 U10:U11 I7 F3:N5 F8:N9 F6:H7 J6:N7 Q2:AD9" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 G2.xlsx
+++ b/Angular B10 G2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56959B7C-00F7-43E4-8528-13EB79E43CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E392A2C-5A1E-4E26-9968-C57EEFE1A8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Angular B10 G2.xlsx
+++ b/Angular B10 G2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E392A2C-5A1E-4E26-9968-C57EEFE1A8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7049BAD-5FA4-4DD1-B5DD-7F17961AB011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="16">
   <si>
     <t>Student Name</t>
   </si>
@@ -683,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF336CF2-9F7E-9D47-A242-C3CB362C49F8}">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -695,7 +695,7 @@
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,8 +783,29 @@
       <c r="AC1" s="10">
         <v>38013</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AD1" s="10">
+        <v>45320</v>
+      </c>
+      <c r="AE1" s="10">
+        <v>45321</v>
+      </c>
+      <c r="AF1" s="10">
+        <v>45322</v>
+      </c>
+      <c r="AG1" s="10">
+        <v>45323</v>
+      </c>
+      <c r="AH1" s="10">
+        <v>45324</v>
+      </c>
+      <c r="AI1" s="10">
+        <v>45325</v>
+      </c>
+      <c r="AJ1" s="10">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -872,8 +893,31 @@
       <c r="AD2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+    </row>
+    <row r="3" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -960,8 +1004,31 @@
       <c r="AD3" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+    </row>
+    <row r="4" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1048,8 +1115,31 @@
       <c r="AD4" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+    </row>
+    <row r="5" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1136,8 +1226,31 @@
       <c r="AD5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+    </row>
+    <row r="6" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1223,8 +1336,31 @@
       <c r="AD6" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+    </row>
+    <row r="7" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1311,8 +1447,31 @@
       <c r="AD7" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+    </row>
+    <row r="8" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1399,8 +1558,29 @@
       <c r="AD8" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+    </row>
+    <row r="9" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1487,8 +1667,33 @@
       <c r="AD9" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+    </row>
+    <row r="10" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1513,7 +1718,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1540,14 +1745,14 @@
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 O2:O10 F2:H2 J2:N2 U10:U11 I7 F3:N5 F8:N9 F6:H7 J6:N7 Q2:AD9" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E11 O2:O10 F2:H2 J2:N2 U10:U11 I7 F3:N5 F8:N9 F6:H7 J6:N7 Q2:AQ9" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 G2.xlsx
+++ b/Angular B10 G2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7049BAD-5FA4-4DD1-B5DD-7F17961AB011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D179BD-F7ED-4B30-A2E9-DA7884E7E722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="16">
   <si>
     <t>Student Name</t>
   </si>
@@ -686,7 +686,7 @@
   <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1"/>
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -804,6 +804,12 @@
       <c r="AJ1" s="10">
         <v>45326</v>
       </c>
+      <c r="AK1" s="10">
+        <v>45327</v>
+      </c>
+      <c r="AL1" s="10">
+        <v>45328</v>
+      </c>
     </row>
     <row r="2" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
@@ -909,8 +915,12 @@
         <v>3</v>
       </c>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
+      <c r="AK2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
@@ -1020,8 +1030,12 @@
         <v>3</v>
       </c>
       <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
+      <c r="AK3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AM3" s="7"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
@@ -1131,8 +1145,12 @@
         <v>14</v>
       </c>
       <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
+      <c r="AK4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
@@ -1242,8 +1260,12 @@
         <v>14</v>
       </c>
       <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
+      <c r="AK5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
@@ -1352,8 +1374,12 @@
         <v>14</v>
       </c>
       <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
+      <c r="AK6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
@@ -1463,8 +1489,12 @@
         <v>3</v>
       </c>
       <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
+      <c r="AK7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
@@ -1572,8 +1602,12 @@
         <v>14</v>
       </c>
       <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
+      <c r="AK8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
